--- a/speed_radiant_difference/events/Chelyabinsk/chelyabinsk_lc_MAG.xlsx
+++ b/speed_radiant_difference/events/Chelyabinsk/chelyabinsk_lc_MAG.xlsx
@@ -121,10 +121,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G187" activeCellId="0" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1572,1286 +1572,1287 @@
         <v>-20.09</v>
       </c>
     </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>-3.5703</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>-20.567</v>
+      </c>
+    </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
-        <v>-3.5703</v>
+        <v>-3.5369</v>
       </c>
       <c r="B182" s="1" t="n">
-        <v>-20.567</v>
+        <v>-20.5836</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
-        <v>-3.5369</v>
+        <v>-3.5035</v>
       </c>
       <c r="B183" s="1" t="n">
-        <v>-20.5836</v>
+        <v>-20.6202</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
-        <v>-3.5035</v>
+        <v>-3.4702</v>
       </c>
       <c r="B184" s="1" t="n">
-        <v>-20.6202</v>
+        <v>-20.6267</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
-        <v>-3.4702</v>
+        <v>-3.4368</v>
       </c>
       <c r="B185" s="1" t="n">
-        <v>-20.6267</v>
+        <v>-20.5832</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
-        <v>-3.4368</v>
+        <v>-3.4034</v>
       </c>
       <c r="B186" s="1" t="n">
-        <v>-20.5832</v>
+        <v>-20.5997</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>-3.4034</v>
+        <v>-3.3701</v>
       </c>
       <c r="B187" s="1" t="n">
-        <v>-20.5997</v>
+        <v>-20.6361</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
-        <v>-3.3701</v>
+        <v>-3.3367</v>
       </c>
       <c r="B188" s="1" t="n">
-        <v>-20.6361</v>
+        <v>-20.5889</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
-        <v>-3.3367</v>
+        <v>-3.3033</v>
       </c>
       <c r="B189" s="1" t="n">
-        <v>-20.5889</v>
+        <v>-20.6353</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
-        <v>-3.3033</v>
+        <v>-3.27</v>
       </c>
       <c r="B190" s="1" t="n">
-        <v>-20.6353</v>
+        <v>-20.6816</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
-        <v>-3.27</v>
+        <v>-3.2366</v>
       </c>
       <c r="B191" s="1" t="n">
-        <v>-20.6816</v>
+        <v>-20.7479</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
-        <v>-3.2366</v>
+        <v>-3.2032</v>
       </c>
       <c r="B192" s="1" t="n">
-        <v>-20.7479</v>
+        <v>-20.7142</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
-        <v>-3.2032</v>
+        <v>-3.1699</v>
       </c>
       <c r="B193" s="1" t="n">
-        <v>-20.7142</v>
+        <v>-20.8404</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
-        <v>-3.1699</v>
+        <v>-3.1365</v>
       </c>
       <c r="B194" s="1" t="n">
-        <v>-20.8404</v>
+        <v>-20.8229</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
-        <v>-3.1365</v>
+        <v>-3.1031</v>
       </c>
       <c r="B195" s="1" t="n">
-        <v>-20.8229</v>
+        <v>-20.8252</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
-        <v>-3.1031</v>
+        <v>-3.0698</v>
       </c>
       <c r="B196" s="1" t="n">
-        <v>-20.8252</v>
+        <v>-20.8513</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
-        <v>-3.0698</v>
+        <v>-3.0364</v>
       </c>
       <c r="B197" s="1" t="n">
-        <v>-20.8513</v>
+        <v>-20.9374</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
-        <v>-3.0364</v>
+        <v>-3.003</v>
       </c>
       <c r="B198" s="1" t="n">
-        <v>-20.9374</v>
+        <v>-20.8935</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
-        <v>-3.003</v>
+        <v>-2.9697</v>
       </c>
       <c r="B199" s="1" t="n">
-        <v>-20.8935</v>
+        <v>-20.9057</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
-        <v>-2.9697</v>
+        <v>-2.9363</v>
       </c>
       <c r="B200" s="1" t="n">
-        <v>-20.9057</v>
+        <v>-21.0117</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
-        <v>-2.9363</v>
+        <v>-2.9029</v>
       </c>
       <c r="B201" s="1" t="n">
-        <v>-21.0117</v>
+        <v>-21.0478</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
-        <v>-2.9029</v>
+        <v>-2.8696</v>
       </c>
       <c r="B202" s="1" t="n">
-        <v>-21.0478</v>
+        <v>-21.0298</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
-        <v>-2.8696</v>
+        <v>-2.8362</v>
       </c>
       <c r="B203" s="1" t="n">
-        <v>-21.0298</v>
+        <v>-21.1458</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
-        <v>-2.8362</v>
+        <v>-2.8028</v>
       </c>
       <c r="B204" s="1" t="n">
-        <v>-21.1458</v>
+        <v>-21.1718</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
-        <v>-2.8028</v>
+        <v>-2.7695</v>
       </c>
       <c r="B205" s="1" t="n">
-        <v>-21.1718</v>
+        <v>-21.1839</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
-        <v>-2.7695</v>
+        <v>-2.7361</v>
       </c>
       <c r="B206" s="1" t="n">
-        <v>-21.1839</v>
+        <v>-21.2699</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
-        <v>-2.7361</v>
+        <v>-2.7027</v>
       </c>
       <c r="B207" s="1" t="n">
-        <v>-21.2699</v>
+        <v>-21.4059</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
-        <v>-2.7027</v>
+        <v>-2.6694</v>
       </c>
       <c r="B208" s="1" t="n">
-        <v>-21.4059</v>
+        <v>-21.4619</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
-        <v>-2.6694</v>
+        <v>-2.636</v>
       </c>
       <c r="B209" s="1" t="n">
-        <v>-21.4619</v>
+        <v>-21.5139</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
-        <v>-2.636</v>
+        <v>-2.6026</v>
       </c>
       <c r="B210" s="1" t="n">
-        <v>-21.5139</v>
+        <v>-21.54</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
-        <v>-2.6026</v>
+        <v>-2.5693</v>
       </c>
       <c r="B211" s="1" t="n">
-        <v>-21.54</v>
+        <v>-21.666</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
-        <v>-2.5693</v>
+        <v>-2.5359</v>
       </c>
       <c r="B212" s="1" t="n">
-        <v>-21.666</v>
+        <v>-21.9221</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
-        <v>-2.5359</v>
+        <v>-2.5025</v>
       </c>
       <c r="B213" s="1" t="n">
-        <v>-21.9221</v>
+        <v>-22.0682</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
-        <v>-2.5025</v>
+        <v>-2.4692</v>
       </c>
       <c r="B214" s="1" t="n">
-        <v>-22.0682</v>
+        <v>-22.0543</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
-        <v>-2.4692</v>
+        <v>-2.4358</v>
       </c>
       <c r="B215" s="1" t="n">
-        <v>-22.0543</v>
+        <v>-22.0804</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
-        <v>-2.4358</v>
+        <v>-2.4024</v>
       </c>
       <c r="B216" s="1" t="n">
-        <v>-22.0804</v>
+        <v>-22.1766</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
-        <v>-2.4024</v>
+        <v>-2.3691</v>
       </c>
       <c r="B217" s="1" t="n">
-        <v>-22.1766</v>
+        <v>-22.219</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
-        <v>-2.3691</v>
+        <v>-2.3357</v>
       </c>
       <c r="B218" s="1" t="n">
-        <v>-22.219</v>
+        <v>-22.4552</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
-        <v>-2.3357</v>
+        <v>-2.3023</v>
       </c>
       <c r="B219" s="1" t="n">
-        <v>-22.4552</v>
+        <v>-22.5015</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
-        <v>-2.3023</v>
+        <v>-2.269</v>
       </c>
       <c r="B220" s="1" t="n">
-        <v>-22.5015</v>
+        <v>-22.6543</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
-        <v>-2.269</v>
+        <v>-2.2356</v>
       </c>
       <c r="B221" s="1" t="n">
-        <v>-22.6543</v>
+        <v>-22.7507</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
-        <v>-2.2356</v>
+        <v>-2.2022</v>
       </c>
       <c r="B222" s="1" t="n">
-        <v>-22.7507</v>
+        <v>-22.8272</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
-        <v>-2.2022</v>
+        <v>-2.1689</v>
       </c>
       <c r="B223" s="1" t="n">
-        <v>-22.8272</v>
+        <v>-22.8338</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
-        <v>-2.1689</v>
+        <v>-2.1355</v>
       </c>
       <c r="B224" s="1" t="n">
-        <v>-22.8338</v>
+        <v>-22.8704</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
-        <v>-2.1355</v>
+        <v>-2.1021</v>
       </c>
       <c r="B225" s="1" t="n">
-        <v>-22.8704</v>
+        <v>-22.887</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
-        <v>-2.1021</v>
+        <v>-2.0688</v>
       </c>
       <c r="B226" s="1" t="n">
-        <v>-22.887</v>
+        <v>-22.8838</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
-        <v>-2.0688</v>
+        <v>-2.0354</v>
       </c>
       <c r="B227" s="1" t="n">
-        <v>-22.8838</v>
+        <v>-22.9506</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
-        <v>-2.0354</v>
+        <v>-2.002</v>
       </c>
       <c r="B228" s="1" t="n">
-        <v>-22.9506</v>
+        <v>-22.9375</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
-        <v>-2.002</v>
+        <v>-1.9687</v>
       </c>
       <c r="B229" s="1" t="n">
-        <v>-22.9375</v>
+        <v>-22.9545</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
-        <v>-1.9687</v>
+        <v>-1.9353</v>
       </c>
       <c r="B230" s="1" t="n">
-        <v>-22.9545</v>
+        <v>-22.8515</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
-        <v>-1.9353</v>
+        <v>-1.9019</v>
       </c>
       <c r="B231" s="1" t="n">
-        <v>-22.8515</v>
+        <v>-22.8687</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
-        <v>-1.9019</v>
+        <v>-1.8686</v>
       </c>
       <c r="B232" s="1" t="n">
-        <v>-22.8687</v>
+        <v>-22.746</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
-        <v>-1.8686</v>
+        <v>-1.8352</v>
       </c>
       <c r="B233" s="1" t="n">
-        <v>-22.746</v>
+        <v>-22.7133</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
-        <v>-1.8352</v>
+        <v>-1.8018</v>
       </c>
       <c r="B234" s="1" t="n">
-        <v>-22.7133</v>
+        <v>-22.7007</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
-        <v>-1.8018</v>
+        <v>-1.7685</v>
       </c>
       <c r="B235" s="1" t="n">
-        <v>-22.7007</v>
+        <v>-22.7083</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
-        <v>-1.7685</v>
+        <v>-1.7351</v>
       </c>
       <c r="B236" s="1" t="n">
-        <v>-22.7083</v>
+        <v>-22.736</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
-        <v>-1.7351</v>
+        <v>-1.7017</v>
       </c>
       <c r="B237" s="1" t="n">
-        <v>-22.736</v>
+        <v>-22.8638</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
-        <v>-1.7017</v>
+        <v>-1.6684</v>
       </c>
       <c r="B238" s="1" t="n">
-        <v>-22.8638</v>
+        <v>-22.9117</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
-        <v>-1.6684</v>
+        <v>-1.635</v>
       </c>
       <c r="B239" s="1" t="n">
-        <v>-22.9117</v>
+        <v>-22.9598</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
-        <v>-1.635</v>
+        <v>-1.6016</v>
       </c>
       <c r="B240" s="1" t="n">
-        <v>-22.9598</v>
+        <v>-23.108</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
-        <v>-1.6016</v>
+        <v>-1.5683</v>
       </c>
       <c r="B241" s="1" t="n">
-        <v>-23.108</v>
+        <v>-23.3264</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
-        <v>-1.5683</v>
+        <v>-1.5349</v>
       </c>
       <c r="B242" s="1" t="n">
-        <v>-23.3264</v>
+        <v>-23.5849</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
-        <v>-1.5349</v>
+        <v>-1.5015</v>
       </c>
       <c r="B243" s="1" t="n">
-        <v>-23.5849</v>
+        <v>-23.9935</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
-        <v>-1.5015</v>
+        <v>-1.4682</v>
       </c>
       <c r="B244" s="1" t="n">
-        <v>-23.9935</v>
+        <v>-24.3423</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
-        <v>-1.4682</v>
+        <v>-1.4348</v>
       </c>
       <c r="B245" s="1" t="n">
-        <v>-24.3423</v>
+        <v>-24.4213</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
-        <v>-1.4348</v>
+        <v>-1.4014</v>
       </c>
       <c r="B246" s="1" t="n">
-        <v>-24.4213</v>
+        <v>-24.5204</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
-        <v>-1.4014</v>
+        <v>-1.3681</v>
       </c>
       <c r="B247" s="1" t="n">
-        <v>-24.5204</v>
+        <v>-24.9398</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
-        <v>-1.3681</v>
+        <v>-1.3347</v>
       </c>
       <c r="B248" s="1" t="n">
-        <v>-24.9398</v>
+        <v>-24.9693</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
-        <v>-1.3347</v>
+        <v>-1.3013</v>
       </c>
       <c r="B249" s="1" t="n">
-        <v>-24.9693</v>
+        <v>-24.9589</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
-        <v>-1.3013</v>
+        <v>-1.268</v>
       </c>
       <c r="B250" s="1" t="n">
-        <v>-24.9589</v>
+        <v>-24.959</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
-        <v>-1.268</v>
+        <v>-1.2346</v>
       </c>
       <c r="B251" s="1" t="n">
-        <v>-24.959</v>
+        <v>-25.0093</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
-        <v>-1.2346</v>
+        <v>-1.2012</v>
       </c>
       <c r="B252" s="1" t="n">
-        <v>-25.0093</v>
+        <v>-25.0106</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
-        <v>-1.2012</v>
+        <v>-1.1679</v>
       </c>
       <c r="B253" s="1" t="n">
-        <v>-25.0106</v>
+        <v>-25.1416</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
-        <v>-1.1679</v>
+        <v>-1.1345</v>
       </c>
       <c r="B254" s="1" t="n">
-        <v>-25.1416</v>
+        <v>-25.2629</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
-        <v>-1.1345</v>
+        <v>-1.1011</v>
       </c>
       <c r="B255" s="1" t="n">
-        <v>-25.2629</v>
+        <v>-25.5943</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
-        <v>-1.1011</v>
+        <v>-1.0678</v>
       </c>
       <c r="B256" s="1" t="n">
-        <v>-25.5943</v>
+        <v>-25.7961</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
-        <v>-1.0678</v>
+        <v>-1.0344</v>
       </c>
       <c r="B257" s="1" t="n">
-        <v>-25.7961</v>
+        <v>-25.808</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
-        <v>-1.0344</v>
+        <v>-1.001</v>
       </c>
       <c r="B258" s="1" t="n">
-        <v>-25.808</v>
+        <v>-26.1203</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
-        <v>-1.001</v>
+        <v>-0.9677</v>
       </c>
       <c r="B259" s="1" t="n">
-        <v>-26.1203</v>
+        <v>-26.1928</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
-        <v>-0.9677</v>
+        <v>-0.9343</v>
       </c>
       <c r="B260" s="1" t="n">
-        <v>-26.1928</v>
+        <v>-26.3356</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
-        <v>-0.9343</v>
+        <v>-0.9009</v>
       </c>
       <c r="B261" s="1" t="n">
-        <v>-26.3356</v>
+        <v>-26.4787</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
-        <v>-0.9009</v>
+        <v>-0.8676</v>
       </c>
       <c r="B262" s="1" t="n">
-        <v>-26.4787</v>
+        <v>-26.572</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
-        <v>-0.8676</v>
+        <v>-0.8342</v>
       </c>
       <c r="B263" s="1" t="n">
-        <v>-26.572</v>
+        <v>-26.5757</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
-        <v>-0.8342</v>
+        <v>-0.8008</v>
       </c>
       <c r="B264" s="1" t="n">
-        <v>-26.5757</v>
+        <v>-26.6296</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
-        <v>-0.8008</v>
+        <v>-0.7675</v>
       </c>
       <c r="B265" s="1" t="n">
-        <v>-26.6296</v>
+        <v>-26.8339</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
-        <v>-0.7675</v>
+        <v>-0.7341</v>
       </c>
       <c r="B266" s="1" t="n">
-        <v>-26.8339</v>
+        <v>-26.8585</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
-        <v>-0.7341</v>
+        <v>-0.7007</v>
       </c>
       <c r="B267" s="1" t="n">
-        <v>-26.8585</v>
+        <v>-26.8534</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
-        <v>-0.7007</v>
+        <v>-0.6674</v>
       </c>
       <c r="B268" s="1" t="n">
-        <v>-26.8534</v>
+        <v>-26.9286</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
-        <v>-0.6674</v>
+        <v>-0.634</v>
       </c>
       <c r="B269" s="1" t="n">
-        <v>-26.9286</v>
+        <v>-27.0642</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
-        <v>-0.634</v>
+        <v>-0.6006</v>
       </c>
       <c r="B270" s="1" t="n">
-        <v>-27.0642</v>
+        <v>-27.19</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
-        <v>-0.6006</v>
+        <v>-0.5673</v>
       </c>
       <c r="B271" s="1" t="n">
-        <v>-27.19</v>
+        <v>-27.3163</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
-        <v>-0.5673</v>
+        <v>-0.5339</v>
       </c>
       <c r="B272" s="1" t="n">
-        <v>-27.3163</v>
+        <v>-27.3628</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
-        <v>-0.5339</v>
+        <v>-0.5005</v>
       </c>
       <c r="B273" s="1" t="n">
-        <v>-27.3628</v>
+        <v>-27.4198</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
-        <v>-0.5005</v>
+        <v>-0.4672</v>
       </c>
       <c r="B274" s="1" t="n">
-        <v>-27.4198</v>
+        <v>-27.4671</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
-        <v>-0.4672</v>
+        <v>-0.4338</v>
       </c>
       <c r="B275" s="1" t="n">
-        <v>-27.4671</v>
+        <v>-27.5447</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
-        <v>-0.4338</v>
+        <v>-0.4004</v>
       </c>
       <c r="B276" s="1" t="n">
-        <v>-27.5447</v>
+        <v>-27.6227</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
-        <v>-0.4004</v>
+        <v>-0.3671</v>
       </c>
       <c r="B277" s="1" t="n">
-        <v>-27.6227</v>
+        <v>-27.6811</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
-        <v>-0.3671</v>
+        <v>-0.3337</v>
       </c>
       <c r="B278" s="1" t="n">
-        <v>-27.6811</v>
+        <v>-27.7798</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
-        <v>-0.3337</v>
+        <v>-0.3003</v>
       </c>
       <c r="B279" s="1" t="n">
-        <v>-27.7798</v>
+        <v>-27.7989</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
-        <v>-0.3003</v>
+        <v>-0.267</v>
       </c>
       <c r="B280" s="1" t="n">
-        <v>-27.7989</v>
+        <v>-27.8283</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
-        <v>-0.267</v>
+        <v>-0.2336</v>
       </c>
       <c r="B281" s="1" t="n">
-        <v>-27.8283</v>
+        <v>-27.8386</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
-        <v>-0.2336</v>
+        <v>-0.2002</v>
       </c>
       <c r="B282" s="1" t="n">
-        <v>-27.8386</v>
+        <v>-27.8892</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
-        <v>-0.2002</v>
+        <v>-0.1669</v>
       </c>
       <c r="B283" s="1" t="n">
-        <v>-27.8892</v>
+        <v>-27.9102</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
-        <v>-0.1669</v>
+        <v>-0.1335</v>
       </c>
       <c r="B284" s="1" t="n">
-        <v>-27.9102</v>
+        <v>-27.9417</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
-        <v>-0.1335</v>
+        <v>-0.1001</v>
       </c>
       <c r="B285" s="1" t="n">
-        <v>-27.9417</v>
+        <v>-27.9635</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
-        <v>-0.1001</v>
+        <v>-0.0668</v>
       </c>
       <c r="B286" s="1" t="n">
-        <v>-27.9635</v>
+        <v>-27.9857</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
-        <v>-0.0668</v>
+        <v>-0.0334</v>
       </c>
       <c r="B287" s="1" t="n">
-        <v>-27.9857</v>
+        <v>-27.9983</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="n">
-        <v>-0.0334</v>
+      <c r="A288" s="2" t="n">
+        <v>-2.9E-005</v>
       </c>
       <c r="B288" s="1" t="n">
-        <v>-27.9983</v>
+        <v>-28.0013</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="n">
-        <v>-2.9E-005</v>
+      <c r="A289" s="1" t="n">
+        <v>0.0333</v>
       </c>
       <c r="B289" s="1" t="n">
-        <v>-28.0013</v>
+        <v>-27.9547</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
-        <v>0.0333</v>
+        <v>0.0667</v>
       </c>
       <c r="B290" s="1" t="n">
-        <v>-27.9547</v>
+        <v>-27.9185</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
-        <v>0.0667</v>
+        <v>0.1001</v>
       </c>
       <c r="B291" s="1" t="n">
-        <v>-27.9185</v>
+        <v>-27.8127</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
-        <v>0.1001</v>
+        <v>0.1334</v>
       </c>
       <c r="B292" s="1" t="n">
-        <v>-27.8127</v>
+        <v>-27.7472</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
-        <v>0.1334</v>
+        <v>0.1668</v>
       </c>
       <c r="B293" s="1" t="n">
-        <v>-27.7472</v>
+        <v>-27.7422</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
-        <v>0.1668</v>
+        <v>0.2002</v>
       </c>
       <c r="B294" s="1" t="n">
-        <v>-27.7422</v>
+        <v>-27.6876</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
-        <v>0.2002</v>
+        <v>0.2335</v>
       </c>
       <c r="B295" s="1" t="n">
-        <v>-27.6876</v>
+        <v>-27.5934</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
-        <v>0.2335</v>
+        <v>0.2669</v>
       </c>
       <c r="B296" s="1" t="n">
-        <v>-27.5934</v>
+        <v>-27.5595</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
-        <v>0.2669</v>
+        <v>0.3003</v>
       </c>
       <c r="B297" s="1" t="n">
-        <v>-27.5595</v>
+        <v>-27.436</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
-        <v>0.3003</v>
+        <v>0.3336</v>
       </c>
       <c r="B298" s="1" t="n">
-        <v>-27.436</v>
+        <v>-27.223</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
-        <v>0.3336</v>
+        <v>0.367</v>
       </c>
       <c r="B299" s="1" t="n">
-        <v>-27.223</v>
+        <v>-27.1203</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
-        <v>0.367</v>
+        <v>0.4004</v>
       </c>
       <c r="B300" s="1" t="n">
-        <v>-27.1203</v>
+        <v>-26.968</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
-        <v>0.4004</v>
+        <v>0.4337</v>
       </c>
       <c r="B301" s="1" t="n">
-        <v>-26.968</v>
+        <v>-26.8561</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
-        <v>0.4337</v>
+        <v>0.4671</v>
       </c>
       <c r="B302" s="1" t="n">
-        <v>-26.8561</v>
+        <v>-26.6545</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
-        <v>0.4671</v>
+        <v>0.5005</v>
       </c>
       <c r="B303" s="1" t="n">
-        <v>-26.6545</v>
+        <v>-26.3734</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
-        <v>0.5005</v>
+        <v>0.5338</v>
       </c>
       <c r="B304" s="1" t="n">
-        <v>-26.3734</v>
+        <v>-26.1126</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
-        <v>0.5338</v>
+        <v>0.5672</v>
       </c>
       <c r="B305" s="1" t="n">
-        <v>-26.1126</v>
+        <v>-25.9322</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
-        <v>0.5672</v>
+        <v>0.6006</v>
       </c>
       <c r="B306" s="1" t="n">
-        <v>-25.9322</v>
+        <v>-25.4821</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
-        <v>0.6006</v>
+        <v>0.6339</v>
       </c>
       <c r="B307" s="1" t="n">
-        <v>-25.4821</v>
+        <v>-25.1224</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
-        <v>0.6339</v>
+        <v>0.6673</v>
       </c>
       <c r="B308" s="1" t="n">
-        <v>-25.1224</v>
+        <v>-24.9731</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
-        <v>0.6673</v>
+        <v>0.7007</v>
       </c>
       <c r="B309" s="1" t="n">
-        <v>-24.9731</v>
+        <v>-24.8441</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
-        <v>0.7007</v>
+        <v>0.734</v>
       </c>
       <c r="B310" s="1" t="n">
-        <v>-24.8441</v>
+        <v>-24.6655</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
-        <v>0.734</v>
+        <v>0.7674</v>
       </c>
       <c r="B311" s="1" t="n">
-        <v>-24.6655</v>
+        <v>-24.0973</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
-        <v>0.7674</v>
+        <v>0.8008</v>
       </c>
       <c r="B312" s="1" t="n">
-        <v>-24.0973</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
-        <v>0.8008</v>
+        <v>0.8341</v>
       </c>
       <c r="B313" s="1" t="n">
-        <v>-24.1</v>
+        <v>-24.12</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
-        <v>0.8341</v>
+        <v>0.8675</v>
       </c>
       <c r="B314" s="1" t="n">
-        <v>-24.12</v>
+        <v>-24.16</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
-        <v>0.8675</v>
+        <v>0.9009</v>
       </c>
       <c r="B315" s="1" t="n">
-        <v>-24.16</v>
+        <v>-24.36</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
-        <v>0.9009</v>
+        <v>0.9342</v>
       </c>
       <c r="B316" s="1" t="n">
-        <v>-24.36</v>
+        <v>-24.45</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
-        <v>0.9342</v>
+        <v>0.9676</v>
       </c>
       <c r="B317" s="1" t="n">
-        <v>-24.45</v>
+        <v>-24.53</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
-        <v>0.9676</v>
+        <v>1.001</v>
       </c>
       <c r="B318" s="1" t="n">
-        <v>-24.53</v>
+        <v>-24.64</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
-        <v>1.001</v>
+        <v>1.0343</v>
       </c>
       <c r="B319" s="1" t="n">
-        <v>-24.64</v>
+        <v>-24.7</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
-        <v>1.0343</v>
+        <v>1.0677</v>
       </c>
       <c r="B320" s="1" t="n">
-        <v>-24.7</v>
+        <v>-24.81</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
-        <v>1.0677</v>
+        <v>1.1011</v>
       </c>
       <c r="B321" s="1" t="n">
-        <v>-24.81</v>
+        <v>-24.99</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
-        <v>1.1011</v>
+        <v>1.1287</v>
       </c>
       <c r="B322" s="1" t="n">
-        <v>-24.99</v>
+        <v>-25.1234</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
-        <v>1.1287</v>
+        <v>1.26</v>
       </c>
       <c r="B323" s="1" t="n">
-        <v>-25.1234</v>
+        <v>-23.8259</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
-        <v>1.26</v>
+        <v>1.3914</v>
       </c>
       <c r="B324" s="1" t="n">
-        <v>-23.8259</v>
+        <v>-22.3992</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
-        <v>1.3914</v>
+        <v>1.5227</v>
       </c>
       <c r="B325" s="1" t="n">
-        <v>-22.3992</v>
+        <v>-21.3926</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
-        <v>1.5227</v>
+        <v>1.654</v>
       </c>
       <c r="B326" s="1" t="n">
-        <v>-21.3926</v>
+        <v>-21.0285</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
-        <v>1.654</v>
+        <v>1.7854</v>
       </c>
       <c r="B327" s="1" t="n">
-        <v>-21.0285</v>
+        <v>-20.8274</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
-        <v>1.7854</v>
+        <v>1.9167</v>
       </c>
       <c r="B328" s="1" t="n">
-        <v>-20.8274</v>
+        <v>-20.7248</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
-        <v>1.9167</v>
+        <v>2.048</v>
       </c>
       <c r="B329" s="1" t="n">
-        <v>-20.7248</v>
+        <v>-20.6196</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
-        <v>2.048</v>
+        <v>2.1794</v>
       </c>
       <c r="B330" s="1" t="n">
-        <v>-20.6196</v>
+        <v>-20.439</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
-        <v>2.1794</v>
+        <v>2.3107</v>
       </c>
       <c r="B331" s="1" t="n">
-        <v>-20.439</v>
+        <v>-20.3169</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
-        <v>2.3107</v>
+        <v>2.442</v>
       </c>
       <c r="B332" s="1" t="n">
-        <v>-20.3169</v>
+        <v>-20.2773</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
-        <v>2.442</v>
+        <v>2.5734</v>
       </c>
       <c r="B333" s="1" t="n">
-        <v>-20.2773</v>
+        <v>-20.2779</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
-        <v>2.5734</v>
+        <v>2.7047</v>
       </c>
       <c r="B334" s="1" t="n">
-        <v>-20.2779</v>
+        <v>-20.2555</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
-        <v>2.7047</v>
+        <v>2.836</v>
       </c>
       <c r="B335" s="1" t="n">
-        <v>-20.2555</v>
+        <v>-20.2347</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
-        <v>2.836</v>
+        <v>2.9674</v>
       </c>
       <c r="B336" s="1" t="n">
-        <v>-20.2347</v>
+        <v>-20.2071</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
-        <v>2.9674</v>
+        <v>3.0987</v>
       </c>
       <c r="B337" s="1" t="n">
-        <v>-20.2071</v>
+        <v>-20.1667</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
-        <v>3.0987</v>
+        <v>3.23</v>
       </c>
       <c r="B338" s="1" t="n">
-        <v>-20.1667</v>
+        <v>-20.1393</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
-        <v>3.23</v>
+        <v>3.3614</v>
       </c>
       <c r="B339" s="1" t="n">
-        <v>-20.1393</v>
+        <v>-20.125</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
-        <v>3.3614</v>
+        <v>3.4927</v>
       </c>
       <c r="B340" s="1" t="n">
-        <v>-20.125</v>
-      </c>
-    </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="n">
-        <v>3.4927</v>
-      </c>
-      <c r="B341" s="1" t="n">
         <v>-20.1098</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
